--- a/biology/Médecine/1581_en_santé_et_médecine/1581_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1581_en_santé_et_médecine/1581_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1581_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1581_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1581 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1581_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1581_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Épidémies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1579-1581 : la grande pandémie entrée en France par Marseille fait des ravages dans Arles[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1579-1581 : la grande pandémie entrée en France par Marseille fait des ravages dans Arles.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1581_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1581_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +555,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous le titre de Les Trois Livres de la vie, Guy Le Fèvre de La Boderie publie à Paris, chez Abel L'Angelier, sa traduction française des De vita libri tres (en) (1489) de Marsile Ficin[2],[3].
-Sous le titre de Discours des remèdes singuliers, Jean Rivière fait imprimer à Paris, chez Galiot, fils de Gilles Corrozet, sa traduction des Formulae remediorum (1567) de Pierre de Gorris[4].
-Sous le titre de Traité de la peste[5], Jacob Stoer imprime à Genève la traduction française, par Guillaume des Innocents, du De peste liber unus (1567) de Laurent Joubert[6],[7].
-Nicolas de Nancel publie à Paris, chez Denis Duval, son Discours tres ample de la peste[8],[9].
-François Rousset (1535-1598 ?) fait paraître chez Denis Duval, à Paris, son Nouveau traité de l'hystérotomotokie ou enfantement caesarien[10],[11],[12], dont Gaspard Bauhin donnera une traduction latine en 1588[13].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous le titre de Les Trois Livres de la vie, Guy Le Fèvre de La Boderie publie à Paris, chez Abel L'Angelier, sa traduction française des De vita libri tres (en) (1489) de Marsile Ficin,.
+Sous le titre de Discours des remèdes singuliers, Jean Rivière fait imprimer à Paris, chez Galiot, fils de Gilles Corrozet, sa traduction des Formulae remediorum (1567) de Pierre de Gorris.
+Sous le titre de Traité de la peste, Jacob Stoer imprime à Genève la traduction française, par Guillaume des Innocents, du De peste liber unus (1567) de Laurent Joubert,.
+Nicolas de Nancel publie à Paris, chez Denis Duval, son Discours tres ample de la peste,.
+François Rousset (1535-1598 ?) fait paraître chez Denis Duval, à Paris, son Nouveau traité de l'hystérotomotokie ou enfantement caesarien dont Gaspard Bauhin donnera une traduction latine en 1588.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1581_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1581_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gaspare Aselli (mort en 1626), médecin italien[14].
-Johannes Chesnecopherus (sv) (mort en 1635), médecin suédois[15].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gaspare Aselli (mort en 1626), médecin italien.
+Johannes Chesnecopherus (sv) (mort en 1635), médecin suédois.</t>
         </is>
       </c>
     </row>
